--- a/documents/数据库表结构.xlsx
+++ b/documents/数据库表结构.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="145">
   <si>
     <t>id</t>
   </si>
@@ -117,6 +117,359 @@
   </si>
   <si>
     <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.photo.store.qq.com/psc?/V510AnOG4V0s800eGPwJ2McGnp4YTsKZ/45NBuzDIW489QBoVep5mcZjUnpNtDO30*u6UQ0PEdRkaupZqxGU4Ci18GCaAUafIPbwWk0xdy*grm7SL8Gbz9ExDTcE.ts83L*lv2Vms3aE!/r</t>
+  </si>
+  <si>
+    <t>Neck pillow</t>
+  </si>
+  <si>
+    <t>Conventional Neck Pillow</t>
+  </si>
+  <si>
+    <t>Conventional Neck Pillow #1</t>
+  </si>
+  <si>
+    <t>Conventional Neck Pillow #2</t>
+  </si>
+  <si>
+    <t>Conventional Neck Pillow #3</t>
+  </si>
+  <si>
+    <t>Conventional Neck Pillow #4</t>
+  </si>
+  <si>
+    <t>Conventional Neck Pillow #5</t>
+  </si>
+  <si>
+    <t>Animals Neck Pillow</t>
+  </si>
+  <si>
+    <t>Animals Neck Pillow #1</t>
+  </si>
+  <si>
+    <t>Animals Neck Pillow #2</t>
+  </si>
+  <si>
+    <t>Animals Neck Pillow #3</t>
+  </si>
+  <si>
+    <t>Animals Neck Pillow #4</t>
+  </si>
+  <si>
+    <t>Animals Neck Pillow #5</t>
+  </si>
+  <si>
+    <t>Back cushion</t>
+  </si>
+  <si>
+    <t>Conventional Back Cushion</t>
+  </si>
+  <si>
+    <t>Conventional Cushion For Leaning On #1</t>
+  </si>
+  <si>
+    <t>Conventional Cushion For Leaning On #2</t>
+  </si>
+  <si>
+    <t>Conventional Cushion For Leaning On #3</t>
+  </si>
+  <si>
+    <t>Conventional Cushion For Leaning On #4</t>
+  </si>
+  <si>
+    <t>Conventional Cushion For Leaning On #5</t>
+  </si>
+  <si>
+    <t>Conventional Cushion For Leaning On #6</t>
+  </si>
+  <si>
+    <t>Conventional Cushion For Leaning On #7</t>
+  </si>
+  <si>
+    <t>Conventional Cushion For Leaning On #8</t>
+  </si>
+  <si>
+    <t>Animal Back Cushion</t>
+  </si>
+  <si>
+    <t>Animal Back Cushion #1</t>
+  </si>
+  <si>
+    <t>Animal Back Cushion #2</t>
+  </si>
+  <si>
+    <t>Animal Back Cushion #3</t>
+  </si>
+  <si>
+    <t>Animal Back Cushion #4</t>
+  </si>
+  <si>
+    <t>Sofa cushion</t>
+  </si>
+  <si>
+    <t>Japanese Cushion</t>
+  </si>
+  <si>
+    <t>Japanese Cushion #1</t>
+  </si>
+  <si>
+    <t>Japanese Cushion #2</t>
+  </si>
+  <si>
+    <t>Japanese Cushion #3</t>
+  </si>
+  <si>
+    <t>Sofa</t>
+  </si>
+  <si>
+    <t>Sofa #1</t>
+  </si>
+  <si>
+    <t>Sofa #2</t>
+  </si>
+  <si>
+    <t>Sofa #3</t>
+  </si>
+  <si>
+    <t>Sofa #4</t>
+  </si>
+  <si>
+    <t>Sofa #5</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>Children's Toys</t>
+  </si>
+  <si>
+    <t>Children's Toys #1</t>
+  </si>
+  <si>
+    <t>Children's Toys #2</t>
+  </si>
+  <si>
+    <t>Children's Toys #3</t>
+  </si>
+  <si>
+    <t>Children's Toys #4</t>
+  </si>
+  <si>
+    <t>Children's Toys #5</t>
+  </si>
+  <si>
+    <t>Children's Toys #6</t>
+  </si>
+  <si>
+    <t>Children's Toys #7</t>
+  </si>
+  <si>
+    <t>Children's Toys #8</t>
+  </si>
+  <si>
+    <t>Children's Toys #9</t>
+  </si>
+  <si>
+    <t>Pet Toys</t>
+  </si>
+  <si>
+    <t>Pet Toys #1</t>
+  </si>
+  <si>
+    <t>Pet Toys #2</t>
+  </si>
+  <si>
+    <t>Pet Toys #3</t>
+  </si>
+  <si>
+    <t>Pet Toys #4</t>
+  </si>
+  <si>
+    <t>Pet Toys #5</t>
+  </si>
+  <si>
+    <t>Pet Toys #6</t>
+  </si>
+  <si>
+    <t>Pet Toys #7</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.jpg</t>
+  </si>
+  <si>
+    <t>1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.jpg</t>
+  </si>
+  <si>
+    <t>4.jpg</t>
+  </si>
+  <si>
+    <t>5.jpg</t>
+  </si>
+  <si>
+    <t>6.jpg</t>
+  </si>
+  <si>
+    <t>7.jpg</t>
+  </si>
+  <si>
+    <t>8.jpg</t>
+  </si>
+  <si>
+    <t>9.jpg</t>
+  </si>
+  <si>
+    <t>10.jpg</t>
+  </si>
+  <si>
+    <t>11.jpg</t>
+  </si>
+  <si>
+    <t>12.jpg</t>
+  </si>
+  <si>
+    <t>13.jpg</t>
+  </si>
+  <si>
+    <t>14.jpg</t>
+  </si>
+  <si>
+    <t>15.jpg</t>
+  </si>
+  <si>
+    <t>16.jpg</t>
+  </si>
+  <si>
+    <t>17.jpg</t>
+  </si>
+  <si>
+    <t>18.jpg</t>
+  </si>
+  <si>
+    <t>19.jpg</t>
+  </si>
+  <si>
+    <t>20.jpg</t>
+  </si>
+  <si>
+    <t>21.jpg</t>
+  </si>
+  <si>
+    <t>22.jpg</t>
+  </si>
+  <si>
+    <t>23.jpg</t>
+  </si>
+  <si>
+    <t>24.jpg</t>
+  </si>
+  <si>
+    <t>25.jpg</t>
+  </si>
+  <si>
+    <t>26.jpg</t>
+  </si>
+  <si>
+    <t>27.jpg</t>
+  </si>
+  <si>
+    <t>28.jpg</t>
+  </si>
+  <si>
+    <t>29.jpg</t>
+  </si>
+  <si>
+    <t>30.jpg</t>
+  </si>
+  <si>
+    <t>31.jpg</t>
+  </si>
+  <si>
+    <t>32.jpg</t>
+  </si>
+  <si>
+    <t>33.jpg</t>
+  </si>
+  <si>
+    <t>34.jpg</t>
+  </si>
+  <si>
+    <t>35.jpg</t>
+  </si>
+  <si>
+    <t>36.jpg</t>
+  </si>
+  <si>
+    <t>37.jpg</t>
+  </si>
+  <si>
+    <t>38.jpg</t>
+  </si>
+  <si>
+    <t>39.jpg</t>
+  </si>
+  <si>
+    <t>40.jpg</t>
+  </si>
+  <si>
+    <t>41.jpg</t>
+  </si>
+  <si>
+    <t>42.jpg</t>
+  </si>
+  <si>
+    <t>43.jpg</t>
+  </si>
+  <si>
+    <t>44.jpg</t>
+  </si>
+  <si>
+    <t>45.jpg</t>
+  </si>
+  <si>
+    <t>46.jpg</t>
+  </si>
+  <si>
+    <t>图片名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://r.photo.store.qq.com/psc?/V510AnOG4V0s800eGPwJ2McGnp4YTsKZ/45NBuzDIW489QBoVep5mcW2OzA5k.UAX48iMr6S7H1lh*ALrMu*Qzz6IhbQTZg.BI6HhzcGN1s55tKX5Cu*6xlFny5V*f3VIOiZSekQE3.w!/r</t>
+  </si>
+  <si>
+    <t>http://r.photo.store.qq.com/psc?/V510AnOG4V0s800eGPwJ2McGnp4YTsKZ/45NBuzDIW489QBoVep5mcW2OzA5k.UAX48iMr6S7H1lt5LfvRbU.igcSBWBK8dyHGmBkitKDWq4y2WQ5713vDWcQXSsBjMHTaK9W9eHL7EI!/r</t>
+  </si>
+  <si>
+    <t>http://r.photo.store.qq.com/psc?/V510AnOG4V0s800eGPwJ2McGnp4YTsKZ/45NBuzDIW489QBoVep5mcW2OzA5k.UAX48iMr6S7H1nSfJAQIvhWnrT7tziLHZeDAxxJtQM6tPhGhS8MK2U7agYkOqNEa0LQgftSAbtI2hM!/r</t>
+  </si>
+  <si>
+    <t>http://r.photo.store.qq.com/psc?/V510AnOG4V0s800eGPwJ2McGnp4YTsKZ/45NBuzDIW489QBoVep5mcW2OzA5k.UAX48iMr6S7H1kfVCcw8xkF8SqHOQ6LQ*M.Vb*nD*SA3dECiqR4CVE3L5hqFoQGs.JGvQIg9ENOBj8!/r</t>
+  </si>
+  <si>
+    <t>http://r.photo.store.qq.com/psc?/V510AnOG4V0s800eGPwJ2McGnp4YTsKZ/45NBuzDIW489QBoVep5mcTzoaxFfcjI*Vkt9H56OySSeQQHq27ia4MdcgHBvcFhriYEFTTZJOe9tlooThvXbw7OHzCL5aXLUVyurNZf7bL8!/r</t>
+  </si>
+  <si>
+    <t>http://r.photo.store.qq.com/psc?/V510AnOG4V0s800eGPwJ2McGnp4YTsKZ/45NBuzDIW489QBoVep5mcTzoaxFfcjI*Vkt9H56OySRBVNnglqDyKlh7qyWm5picVTkDyRffXyJD3mySdNHuyZ7j8i9vYlOPlGF8cHFcXH8!/r</t>
+  </si>
+  <si>
+    <t>http://r.photo.store.qq.com/psc?/V510AnOG4V0s800eGPwJ2McGnp4YTsKZ/45NBuzDIW489QBoVep5mcTzoaxFfcjI*Vkt9H56OySSEzXSQihq0G8*7ZFp7JbRREOjbyTfn4*frTWDECgXwg2sn62cPXnIKjjzcNL*Qz64!/r</t>
+  </si>
+  <si>
+    <t>QQ空间存图地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,6 +557,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -484,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,9 +859,15 @@
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -512,7 +879,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -523,8 +890,29 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -543,8 +931,27 @@
       <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -563,8 +970,27 @@
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K4" s="6">
+        <v>2</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -579,8 +1005,27 @@
       <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K5" s="6">
+        <v>3</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -595,8 +1040,27 @@
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K6" s="6">
+        <v>4</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -611,8 +1075,27 @@
       <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K7" s="6">
+        <v>5</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -629,8 +1112,27 @@
       <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="K8" s="6">
+        <v>6</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -645,6 +1147,768 @@
       <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="K9" s="6">
+        <v>7</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K10" s="6">
+        <v>8</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K11" s="6">
+        <v>9</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K12" s="6">
+        <v>10</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K13" s="6">
+        <v>11</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K14" s="6">
+        <v>12</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K15" s="6">
+        <v>13</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K16" s="6">
+        <v>14</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K17" s="6">
+        <v>15</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K18" s="6">
+        <v>16</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K19" s="6">
+        <v>17</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K20" s="6">
+        <v>18</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K21" s="6">
+        <v>19</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K22" s="6">
+        <v>20</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K23" s="6">
+        <v>21</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q23" s="9"/>
+    </row>
+    <row r="24" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K24" s="6">
+        <v>22</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q24" s="9"/>
+    </row>
+    <row r="25" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K25" s="6">
+        <v>23</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q25" s="9"/>
+    </row>
+    <row r="26" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K26" s="6">
+        <v>24</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q26" s="9"/>
+    </row>
+    <row r="27" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K27" s="6">
+        <v>25</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q27" s="9"/>
+    </row>
+    <row r="28" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K28" s="6">
+        <v>26</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q28" s="9"/>
+    </row>
+    <row r="29" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K29" s="6">
+        <v>27</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q29" s="9"/>
+    </row>
+    <row r="30" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K30" s="6">
+        <v>28</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q30" s="9"/>
+    </row>
+    <row r="31" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K31" s="6">
+        <v>29</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q31" s="9"/>
+    </row>
+    <row r="32" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K32" s="6">
+        <v>30</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q32" s="9"/>
+    </row>
+    <row r="33" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K33" s="6">
+        <v>31</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q33" s="9"/>
+    </row>
+    <row r="34" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K34" s="6">
+        <v>32</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q34" s="9"/>
+    </row>
+    <row r="35" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K35" s="6">
+        <v>33</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q35" s="9"/>
+    </row>
+    <row r="36" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K36" s="6">
+        <v>34</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q36" s="9"/>
+    </row>
+    <row r="37" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K37" s="6">
+        <v>35</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q37" s="9"/>
+    </row>
+    <row r="38" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K38" s="6">
+        <v>36</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q38" s="9"/>
+    </row>
+    <row r="39" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K39" s="6">
+        <v>37</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q39" s="9"/>
+    </row>
+    <row r="40" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K40" s="6">
+        <v>38</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q40" s="9"/>
+    </row>
+    <row r="41" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K41" s="6">
+        <v>39</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q41" s="9"/>
+    </row>
+    <row r="42" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K42" s="6">
+        <v>40</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q42" s="9"/>
+    </row>
+    <row r="43" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K43" s="6">
+        <v>41</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q43" s="9"/>
+    </row>
+    <row r="44" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K44" s="6">
+        <v>42</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q44" s="9"/>
+    </row>
+    <row r="45" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K45" s="6">
+        <v>43</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q45" s="9"/>
+    </row>
+    <row r="46" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K46" s="6">
+        <v>44</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K47" s="6">
+        <v>45</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q47" s="9"/>
+    </row>
+    <row r="48" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K48" s="6">
+        <v>46</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q48" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
